--- a/data/trans_bre/P24_8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,6</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>283,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>319,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>134,79%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>183,91%</t>
+          <t>330,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>132,33%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>202,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>68,15%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,53</t>
+          <t>-2,68; 13,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,81</t>
+          <t>4,12; 18,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,84</t>
+          <t>1,9; 10,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,94</t>
+          <t>6,4; 15,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 11,58</t>
+          <t>-0,84; 19,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,57; 836,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,57; 1015,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,34; 356,2</t>
+          <t>-31,3; 454,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,58; 403,56</t>
+          <t>28,07; 1451,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 141,37</t>
+          <t>22,79; 429,87</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>75,85; 440,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 232,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>128,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>187,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>139,39%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>101,45%</t>
+          <t>161,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>133,84%</t>
+          <t>166,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>104,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>167,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,98</t>
+          <t>-7,16; 8,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,06</t>
+          <t>4,11; 12,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,87</t>
+          <t>4,39; 11,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,81</t>
+          <t>1,71; 9,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,71</t>
+          <t>5,54; 16,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,39; 236,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,99; 378,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,56; 273,49</t>
+          <t>-42,05; 133,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 215,86</t>
+          <t>52,98; 377,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,52; 239,97</t>
+          <t>70,69; 330,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,47; 223,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46,93; 383,33</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>125,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>200,09%</t>
+          <t>137,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>59,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>145,04%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>89,02%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>110,8%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,07</t>
+          <t>0,95; 10,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,64</t>
+          <t>-1,13; 7,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,82</t>
+          <t>2,45; 8,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,1</t>
+          <t>1,56; 8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 8,67</t>
+          <t>0,81; 8,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 333,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 105,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,37; 435,5</t>
+          <t>8,05; 493,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 217,78</t>
+          <t>-17,74; 219,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 130,14</t>
+          <t>39,47; 332,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 230,56</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 390,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>144,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>125,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>151,61%</t>
+          <t>284,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>114,53%</t>
+          <t>147,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>179,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>221,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,5</t>
+          <t>6,92; 11,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,87</t>
+          <t>2,14; 9,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 8,23</t>
+          <t>2,93; 10,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,0</t>
+          <t>4,46; 12,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,31; 234,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,05; 206,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>87,74; 231,54</t>
+          <t>136,75; 500,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,45; 186,06</t>
+          <t>16,09; 332,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,0; 132,71</t>
+          <t>47,27; 416,78</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85,17; 524,7</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,77</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,69</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>144,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>146,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>158,31%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>120,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>147,68%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 9,42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 8,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 8,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 9,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 11,37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 235,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69,43; 245,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>90,17; 241,89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>57,56; 193,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82,8; 237,49</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
